--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\customAvd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044F482-5915-438F-A3C3-C738FDFF1754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B5E06-0165-44B4-8E7B-558BD6396F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-2388" windowWidth="30936" windowHeight="16776" tabRatio="671" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-2388" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="697">
   <si>
     <t>! Spine-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2551,6 +2551,36 @@
   </si>
   <si>
     <t>E_IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ip address 192.168.0.1/30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>192.168.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="카카오 Regular"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/30</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2558,7 +2588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2726,6 +2756,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2980,6 +3017,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2987,9 +3027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3713,7 +3750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4191,7 +4228,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4935,7 +4972,7 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5140,7 +5177,7 @@
     </row>
     <row r="18" spans="13:15">
       <c r="M18" t="s">
-        <v>84</v>
+        <v>695</v>
       </c>
       <c r="O18" t="s">
         <v>85</v>
@@ -7323,7 +7360,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13860,8 +13897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13877,24 +13914,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="10" t="s">
         <v>355</v>
       </c>
@@ -13931,7 +13968,7 @@
         <v>580</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>667</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -13941,7 +13978,7 @@
         <v>580</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>680</v>
       </c>
     </row>
@@ -13956,7 +13993,7 @@
         <v>582</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>668</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -13966,7 +14003,7 @@
         <v>580</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>684</v>
       </c>
     </row>
@@ -13981,7 +14018,7 @@
         <v>584</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="40" t="s">
         <v>669</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -13991,7 +14028,7 @@
         <v>580</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>685</v>
       </c>
     </row>
@@ -14006,7 +14043,7 @@
         <v>587</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>670</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -14016,7 +14053,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="40" t="s">
         <v>686</v>
       </c>
     </row>
@@ -14031,7 +14068,7 @@
         <v>588</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="40" t="s">
         <v>671</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -14041,7 +14078,7 @@
         <v>300</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="40" t="s">
         <v>681</v>
       </c>
     </row>
@@ -14056,7 +14093,7 @@
         <v>589</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>672</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -14066,7 +14103,7 @@
         <v>300</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="40" t="s">
         <v>683</v>
       </c>
     </row>
@@ -14081,7 +14118,7 @@
         <v>591</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>673</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -14091,7 +14128,7 @@
         <v>305</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="40" t="s">
         <v>679</v>
       </c>
     </row>
@@ -14106,7 +14143,7 @@
         <v>301</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>674</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -14116,7 +14153,7 @@
         <v>305</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="40" t="s">
         <v>687</v>
       </c>
     </row>
@@ -14131,7 +14168,7 @@
         <v>593</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="40" t="s">
         <v>675</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -14141,7 +14178,7 @@
         <v>305</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="40" t="s">
         <v>688</v>
       </c>
     </row>
@@ -14156,7 +14193,7 @@
         <v>302</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="40" t="s">
         <v>676</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -14166,7 +14203,7 @@
         <v>305</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="40" t="s">
         <v>689</v>
       </c>
     </row>
@@ -14181,7 +14218,7 @@
         <v>303</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="40" t="s">
         <v>677</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -14191,7 +14228,7 @@
         <v>305</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="40" t="s">
         <v>682</v>
       </c>
     </row>
@@ -14206,7 +14243,7 @@
         <v>304</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="40" t="s">
         <v>678</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -14216,7 +14253,7 @@
         <v>305</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="40" t="s">
         <v>690</v>
       </c>
     </row>
@@ -14231,7 +14268,9 @@
         <v>306</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>696</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>578</v>
       </c>
@@ -14239,7 +14278,9 @@
         <v>306</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="20">
@@ -14252,7 +14293,9 @@
         <v>307</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>696</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>578</v>
       </c>
@@ -14260,7 +14303,9 @@
         <v>307</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15402,7 +15447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15684,7 +15729,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16403,7 +16448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\customAvd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B5E06-0165-44B4-8E7B-558BD6396F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF9642A-70FA-4733-AA2F-923611CE0685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-2388" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30504" yWindow="-2280" windowWidth="30936" windowHeight="16560" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="701">
   <si>
     <t>! Spine-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2581,6 +2581,22 @@
       </rPr>
       <t>/30</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.251</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27.4M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2827,7 +2843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2887,6 +2903,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2896,7 +2923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3027,6 +3054,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3748,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4191,11 +4224,25 @@
       </c>
     </row>
     <row r="23" spans="1:12">
+      <c r="A23" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>698</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>335</v>
       </c>
       <c r="E23" s="13">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -13897,7 +13944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
